--- a/Datasets/prediction_bead_correl.xlsx
+++ b/Datasets/prediction_bead_correl.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAAE168-DDCC-46B5-9BFC-FBFB67DE2031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7B3E5-3B24-4494-80AC-E1485A556205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C7DF411-F2A8-4929-AF22-26AB70854EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="162">
   <si>
     <t>Fraction ANT Binding</t>
   </si>
@@ -516,6 +517,9 @@
   </si>
   <si>
     <t>yes - 3</t>
+  </si>
+  <si>
+    <t>WT</t>
   </si>
 </sst>
 </file>
@@ -1576,6 +1580,507 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-3B36-4EC7-9277-03CA92816E9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$16:$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>WT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14-53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27-02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43-01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43-06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EM02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EM04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EM13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$16:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58209279599999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.144735412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95599261099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95599261099999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44398565699999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63707486700000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44398565699999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48592850199999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B36-4EC7-9277-03CA92816E9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="632337104"/>
+        <c:axId val="632335136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="632337104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Myriad pro"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632335136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632335136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Myriad pro"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WT Normalized OVA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Myriad pro"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Myriad pro"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632337104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Myriad pro"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1617,6 +2122,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2688,6 +3233,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2757,6 +3805,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4057DC-B061-4C3E-91E4-54F2E1D1E3F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3065,7 +4149,7 @@
   <dimension ref="A1:Q138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3672,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6013,4 +7097,2368 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF89B487-C88A-4062-A406-40919A4D8D60}">
+  <dimension ref="A1:E138"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="A2:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0.89968466011755399</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.80596518005129603</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.85299223006453795</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.81686141955045599</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.89720283870763295</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.79906427462481899</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0.87036477800443302</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.71447721014029797</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>0.88258270542414097</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.80524255239613296</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0.89958836684216603</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.79759427509187497</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>0.88036930591828799</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.81019891695919999</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9">
+        <v>0.95176398643498705</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.83842141871012799</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>0.94378144320743895</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.83230149969272704</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <v>0.91585642295038605</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.81463396044277003</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12">
+        <v>0.90682217576894897</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.83201486279821302</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0.80521655304640805</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.71609261414613201</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.82737042663057503</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.74084823180042503</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0.84274731851696205</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.89222098200106703</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>0.811840652206265</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.82386520505502003</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>0.82948772854060304</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.82120794360254901</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>0.83771323970389699</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.814572388687683</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19">
+        <v>0.840220002722321</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.79006347498854701</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>0.83269233061898396</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.70657205732706496</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>0.98790314541913204</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.86034508812330501</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>0.82428603117303001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.72291179038109499</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23">
+        <v>0.83822446681518104</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.78550075488851501</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>0.82891248768085801</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.82450676199788098</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25">
+        <v>0.93277293965946595</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.87167762061732101</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26">
+        <v>0.88099400875987499</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.88667906734781499</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>0.81785588065936499</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.796227582168755</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28">
+        <v>0.828604535876175</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.77583868030812697</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29">
+        <v>0.83076290760576998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.77437865303611497</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30">
+        <v>1.0040125833221301</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.88052147759628197</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31">
+        <v>0.80009532313679199</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.87224315624792603</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.75859109963640703</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.62918965859467102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.75676706329344801</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.75513542284327595</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.78486553510636203</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.94186164868689504</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>0.91325869153016703</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.90673923085721597</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>0.92311314800283695</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.94170429797978905</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>0.77757145211967205</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.75688659921516399</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>0.77698214899019402</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.60714956706985501</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>0.892695506341735</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.91184459806870299</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>1.01738453168712</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.94465626717753604</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>0.78246729665715697</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.77758062285632401</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>0.78790684113337695</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.85680601218129704</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43">
+        <v>0.77635375794316497</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.77413472271660499</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>0.79274494435745502</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.76013962924018696</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>0.81520301915347204</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.93257675688028996</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <v>0.87933235602901805</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.90460574238539004</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <v>0.88879983836850895</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.91682890524024296</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>0.76742615852378704</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.83901858937876195</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>0.78177511498795704</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.71125329830133999</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>0.79200082927292803</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.74683309119831198</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>0.92581946056259901</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.91440686892814405</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52">
+        <v>0.79973347617454005</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.75836442794801195</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53">
+        <v>0.76757177374206698</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.74261042160294499</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54">
+        <v>0.788180080827797</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.76617625755954999</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55">
+        <v>0.79400659456780898</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.74282999551663598</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56">
+        <v>0.90835975559580895</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.92995501608146802</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57">
+        <v>0.77519045760576799</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.786433526253278</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58">
+        <v>0.85372196675848999</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.91793246962563002</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59">
+        <v>0.77174592183703905</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.64937646084283096</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>131</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60">
+        <v>0.91459224604792999</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.92939842388410299</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0.71721712894552103</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.79799592144218501</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>0.88787540290002198</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.96180296737097704</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>0.59704950063671103</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.79545734364239296</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>0.59148474870776102</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.61515483795288195</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>0.73980954409756905</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.95495114162735595</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>0.47599491208885403</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.31241767542041099</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>1.0275225443712801</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.96296194201297602</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>0.84735956944463697</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.96617687686832299</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>0.71678395326731903</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.82187744854439304</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>0.58574500043750799</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.60402535153376102</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>0.43023906897059899</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.24146986778583299</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <v>0.74044432859301001</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.74447375058423204</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73">
+        <v>0.71390850948078399</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.52837571328182897</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74">
+        <v>0.47846928140926498</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.44793499544332599</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75">
+        <v>0.303615359087895</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.54413151991172704</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76">
+        <v>0.57015989963907199</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.38717663211606201</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77">
+        <v>0.27472039762697598</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.31156246729374798</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>37</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78">
+        <v>0.349178772784632</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.608978759413346</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>0.21088779743268199</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.50918323839854296</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80">
+        <v>0.43348021780525098</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.75715657441716</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81">
+        <v>0.59832924574164503</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.65404657029844304</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82">
+        <v>0.164373433122078</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.50350127194310001</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>43</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83">
+        <v>0.27287044328001298</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.157310222473523</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84">
+        <v>0.512605087659739</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.70808618939782897</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85">
+        <v>0.44814228094667702</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.49854056411700698</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86">
+        <v>0.23032208275288099</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.399038527952846</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87">
+        <v>0.52562352767522902</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.56509499953519304</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>0.288422540591803</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.25871567876505802</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89">
+        <v>0.47997887382296001</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.55913990095588395</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90">
+        <v>0.557606143495191</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.56320347086158096</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91">
+        <v>0.38658481598438599</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.64339461036510204</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92">
+        <v>0.31661219646826699</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.40109353628407202</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93">
+        <v>0.18977993862529299</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.50678015645458296</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>55</v>
+      </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94">
+        <v>0.23707742211935801</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.38471372271751297</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95">
+        <v>0.53151379427363799</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.63429418072404198</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96">
+        <v>0.430216369761312</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.50872559783499005</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>58</v>
+      </c>
+      <c r="B97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97">
+        <v>0.38275526264996601</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.37389614634478102</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98">
+        <v>0.40025943866414898</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.50744849789009205</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>60</v>
+      </c>
+      <c r="B99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99">
+        <v>0.52515104618970099</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.53930570240704201</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100">
+        <v>0.44683527136458701</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.39867620978569801</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>62</v>
+      </c>
+      <c r="B101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101">
+        <v>0.42404492154048801</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.47012095107853202</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>63</v>
+      </c>
+      <c r="B102" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102">
+        <v>0.26230490999822498</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.49472275480818101</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103">
+        <v>0.32462299890264601</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.56369939392552504</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104">
+        <v>0.367914689788157</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.162048776895931</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>66</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105">
+        <v>0.41969350714206499</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.55146410834912496</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>67</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106">
+        <v>0.37331970977496798</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.47330785798844299</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>68</v>
+      </c>
+      <c r="B107" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107">
+        <v>0.48206119777008299</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.50642336354593198</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>69</v>
+      </c>
+      <c r="B108" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108">
+        <v>0.48200649436849802</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.36087423484956799</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>70</v>
+      </c>
+      <c r="B109" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109">
+        <v>0.56798414375409201</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.490798037567718</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>71</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110">
+        <v>0.228575928768214</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.538770289411871</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>72</v>
+      </c>
+      <c r="B111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111">
+        <v>0.487749361308142</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.56032142243292404</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>73</v>
+      </c>
+      <c r="B112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112">
+        <v>0.19913314529123</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5.9058443269335001E-2</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>74</v>
+      </c>
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113">
+        <v>0.39260797770385403</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.35493452142718301</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>75</v>
+      </c>
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114">
+        <v>0.60015338921904704</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.81806825819776596</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>76</v>
+      </c>
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115">
+        <v>0.40884970706663698</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.52459926533262702</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>77</v>
+      </c>
+      <c r="B116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116">
+        <v>0.26359433362047102</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.14686630211499799</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>78</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117">
+        <v>0.47599491208885403</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.31241767542041099</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>79</v>
+      </c>
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118">
+        <v>0.69531706402406102</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.42609986787387999</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>80</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119">
+        <v>0.45150022914635102</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.47812268379082201</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>81</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120">
+        <v>0.58563372860797602</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.62988188400786704</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>82</v>
+      </c>
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121">
+        <v>0.54630194614151695</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.39382797982380802</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>83</v>
+      </c>
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122">
+        <v>0.47343798698682399</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.47662523478268398</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>85</v>
+      </c>
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123">
+        <v>0.47583040905541202</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.61372163260455703</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>86</v>
+      </c>
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124">
+        <v>0.23496571222078799</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.65951218523510302</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>87</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125">
+        <v>0.42893879982410599</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.36385169890428898</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>88</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126">
+        <v>0.38431755999489697</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.18905023307191399</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>89</v>
+      </c>
+      <c r="B127" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127">
+        <v>0.34113450615186502</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.55668701116669295</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>90</v>
+      </c>
+      <c r="B128" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128">
+        <v>0.28543644122497303</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.54696151429735596</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>91</v>
+      </c>
+      <c r="B129" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129">
+        <v>0.70425691854488703</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.69305190704742803</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>99</v>
+      </c>
+      <c r="B130" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130">
+        <v>0.68152568946551895</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.58371904778589501</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>104</v>
+      </c>
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131">
+        <v>0.63954198612758495</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.59250822928561198</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>105</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132">
+        <v>0.70811699260615402</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.67057396899577304</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>106</v>
+      </c>
+      <c r="B133" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133">
+        <v>0.67959403028395804</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.56243855632123396</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>108</v>
+      </c>
+      <c r="B134" t="s">
+        <v>110</v>
+      </c>
+      <c r="C134">
+        <v>0.69693158992198201</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.56707915808884302</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>110</v>
+      </c>
+      <c r="B135" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135">
+        <v>0.69929348515926004</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.63019959926403502</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>111</v>
+      </c>
+      <c r="B136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136">
+        <v>0.64440188273310195</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.56369443967155097</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>116</v>
+      </c>
+      <c r="B137" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137">
+        <v>0.66606157726844595</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.60294922263286299</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>134</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <v>0.69420830365193698</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.54607139814274697</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E138">
+    <sortCondition descending="1" ref="E2:E138"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datasets/prediction_bead_correl.xlsx
+++ b/Datasets/prediction_bead_correl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7B3E5-3B24-4494-80AC-E1485A556205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60979164-62B7-4851-B9CD-9F57D73CCCCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C7DF411-F2A8-4929-AF22-26AB70854EAF}"/>
   </bookViews>
@@ -3812,16 +3812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
